--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBA84D1-D24A-4FF6-B081-5B5F03156FE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82F28D4-6892-4687-A6C1-2C8677CD3FFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Run</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Disposition_master</t>
+  </si>
+  <si>
+    <t>AssetCategories</t>
+  </si>
+  <si>
+    <t>NPA Category | SMA Category</t>
   </si>
 </sst>
 </file>
@@ -104,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -127,11 +133,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -152,6 +182,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,9 +512,10 @@
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -501,11 +534,14 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="H1" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -524,8 +560,11 @@
       <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82F28D4-6892-4687-A6C1-2C8677CD3FFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA185CD-BC7D-461B-88E1-5293ABC484F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>Call Centre | Collection Agency | Internal User</t>
   </si>
   <si>
-    <t>Sajeesh</t>
-  </si>
-  <si>
     <t>ActionOwners</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>NPA Category | SMA Category</t>
+  </si>
+  <si>
+    <t>Hansan</t>
   </si>
 </sst>
 </file>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,15 +535,15 @@
         <v>8</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -555,7 +555,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>6</v>
@@ -564,7 +564,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA185CD-BC7D-461B-88E1-5293ABC484F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C4430E-6E2B-46AD-99B4-62CDD9E7B22D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -72,7 +72,7 @@
     <t>NPA Category | SMA Category</t>
   </si>
   <si>
-    <t>Hansan</t>
+    <t>Jancy</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C4430E-6E2B-46AD-99B4-62CDD9E7B22D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962BD447-9F33-4EE2-8B8E-C2E018CB0639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Run</t>
   </si>
@@ -54,25 +54,91 @@
     <t>AssetCategory</t>
   </si>
   <si>
+    <t>ActionOwners</t>
+  </si>
+  <si>
+    <t>Disposition_master</t>
+  </si>
+  <si>
+    <t>AssetCategories</t>
+  </si>
+  <si>
+    <t>NPA Category | SMA Category</t>
+  </si>
+  <si>
+    <t>ExistingName</t>
+  </si>
+  <si>
+    <t>Internal User | Collection Agency | Call Centre</t>
+  </si>
+  <si>
+    <t>Internal User</t>
+  </si>
+  <si>
+    <t>ActionOwnerUpdate</t>
+  </si>
+  <si>
+    <t>NameUpdate</t>
+  </si>
+  <si>
+    <t>AssetCategoryUpdate</t>
+  </si>
+  <si>
     <t>Call Centre</t>
   </si>
   <si>
-    <t>Call Centre | Collection Agency | Internal User</t>
-  </si>
-  <si>
-    <t>ActionOwners</t>
-  </si>
-  <si>
-    <t>Disposition_master</t>
-  </si>
-  <si>
-    <t>AssetCategories</t>
-  </si>
-  <si>
-    <t>NPA Category | SMA Category</t>
-  </si>
-  <si>
-    <t>Jancy</t>
+    <t>Irfan</t>
+  </si>
+  <si>
+    <t>UpdateExistingName</t>
+  </si>
+  <si>
+    <t>ActionOwnerSearch</t>
+  </si>
+  <si>
+    <t>ActionOwnerforsubdisposition</t>
+  </si>
+  <si>
+    <t>Disposistionforsubdisposition</t>
+  </si>
+  <si>
+    <t>Nameforsubdisposition</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>ActiveActionOwnerforsubdispositionSearch</t>
+  </si>
+  <si>
+    <t>ActiveDisposistionforsubdispositionSearch</t>
+  </si>
+  <si>
+    <t>DeactivatedActionOwnerforsubdispositionSearch</t>
+  </si>
+  <si>
+    <t>DeactivatedDisposistionforsubdispositionSearch</t>
+  </si>
+  <si>
+    <t>ExistingNameforsubdisposition</t>
+  </si>
+  <si>
+    <t>SMA Category</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Ethan Brooks</t>
+  </si>
+  <si>
+    <t>Liam Carter</t>
+  </si>
+  <si>
+    <t>Noah Hayes</t>
+  </si>
+  <si>
+    <t>sdf</t>
   </si>
 </sst>
 </file>
@@ -498,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,9 +579,22 @@
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="45" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -535,15 +614,57 @@
         <v>8</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="K1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -552,19 +673,61 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962BD447-9F33-4EE2-8B8E-C2E018CB0639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A24FA43-F9EA-4EF1-9FF2-EBE27FE648A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Run</t>
   </si>
@@ -129,16 +129,22 @@
     <t>abc</t>
   </si>
   <si>
-    <t>Ethan Brooks</t>
-  </si>
-  <si>
-    <t>Liam Carter</t>
-  </si>
-  <si>
-    <t>Noah Hayes</t>
-  </si>
-  <si>
-    <t>sdf</t>
+    <t>UpdateExistingNameofsubdispositiontoNew</t>
+  </si>
+  <si>
+    <t>Zephyr3</t>
+  </si>
+  <si>
+    <t>Liora3</t>
+  </si>
+  <si>
+    <t>Orion3</t>
+  </si>
+  <si>
+    <t>Kael3</t>
+  </si>
+  <si>
+    <t>Nyx3</t>
   </si>
 </sst>
 </file>
@@ -564,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,13 +594,14 @@
     <col min="15" max="16" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="45" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="45" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -650,19 +657,22 @@
         <v>31</v>
       </c>
       <c r="S1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -676,7 +686,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>6</v>
@@ -688,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>20</v>
@@ -697,7 +707,7 @@
         <v>19</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>32</v>
@@ -712,21 +722,24 @@
         <v>26</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="S2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>26</v>
       </c>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A24FA43-F9EA-4EF1-9FF2-EBE27FE648A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0FBFAE-73EE-4743-B03D-96058D1A1911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -132,19 +132,19 @@
     <t>UpdateExistingNameofsubdispositiontoNew</t>
   </si>
   <si>
-    <t>Zephyr3</t>
-  </si>
-  <si>
-    <t>Liora3</t>
-  </si>
-  <si>
-    <t>Orion3</t>
-  </si>
-  <si>
-    <t>Kael3</t>
-  </si>
-  <si>
-    <t>Nyx3</t>
+    <t>Zephyr4</t>
+  </si>
+  <si>
+    <t>Liora4</t>
+  </si>
+  <si>
+    <t>Orion4</t>
+  </si>
+  <si>
+    <t>Kael4</t>
+  </si>
+  <si>
+    <t>Nyx4</t>
   </si>
 </sst>
 </file>
@@ -168,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +178,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -256,6 +262,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,33 +587,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="45" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="45" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -609,67 +624,67 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -679,68 +694,68 @@
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="S2" s="6" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="T2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>26</v>
+      <c r="W2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0FBFAE-73EE-4743-B03D-96058D1A1911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA515049-0068-494D-966A-9D6A010C71E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="1" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
+    <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Run</t>
   </si>
@@ -132,19 +133,34 @@
     <t>UpdateExistingNameofsubdispositiontoNew</t>
   </si>
   <si>
-    <t>Zephyr4</t>
-  </si>
-  <si>
-    <t>Liora4</t>
-  </si>
-  <si>
-    <t>Orion4</t>
-  </si>
-  <si>
-    <t>Kael4</t>
-  </si>
-  <si>
-    <t>Nyx4</t>
+    <t>Updation_of_Disposition</t>
+  </si>
+  <si>
+    <t>InvalidAccountNumbers</t>
+  </si>
+  <si>
+    <t>abcdefgh | !@#$%^&amp;*()</t>
+  </si>
+  <si>
+    <t>Zephyr6</t>
+  </si>
+  <si>
+    <t>Liora6</t>
+  </si>
+  <si>
+    <t>Orion6</t>
+  </si>
+  <si>
+    <t>Kael6</t>
+  </si>
+  <si>
+    <t>Nyx6</t>
+  </si>
+  <si>
+    <t>AccountNumberwithmorethan25characters</t>
+  </si>
+  <si>
+    <t>InvalidAccountNumber</t>
   </si>
 </sst>
 </file>
@@ -239,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -271,6 +287,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,19 +719,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>33</v>
@@ -761,4 +785,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1.23456789012345E+28</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1.23123212312321E+24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA515049-0068-494D-966A-9D6A010C71E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DC92A8-0B7C-4EA0-BE53-6A5392A8BF26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="1" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Run</t>
   </si>
@@ -100,36 +100,18 @@
     <t>ActionOwnerforsubdisposition</t>
   </si>
   <si>
-    <t>Disposistionforsubdisposition</t>
-  </si>
-  <si>
     <t>Nameforsubdisposition</t>
   </si>
   <si>
-    <t>Aaron</t>
-  </si>
-  <si>
     <t>ActiveActionOwnerforsubdispositionSearch</t>
   </si>
   <si>
-    <t>ActiveDisposistionforsubdispositionSearch</t>
-  </si>
-  <si>
     <t>DeactivatedActionOwnerforsubdispositionSearch</t>
   </si>
   <si>
-    <t>DeactivatedDisposistionforsubdispositionSearch</t>
-  </si>
-  <si>
-    <t>ExistingNameforsubdisposition</t>
-  </si>
-  <si>
     <t>SMA Category</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>UpdateExistingNameofsubdispositiontoNew</t>
   </si>
   <si>
@@ -142,25 +124,31 @@
     <t>abcdefgh | !@#$%^&amp;*()</t>
   </si>
   <si>
-    <t>Zephyr6</t>
-  </si>
-  <si>
-    <t>Liora6</t>
-  </si>
-  <si>
-    <t>Orion6</t>
-  </si>
-  <si>
-    <t>Kael6</t>
-  </si>
-  <si>
-    <t>Nyx6</t>
-  </si>
-  <si>
     <t>AccountNumberwithmorethan25characters</t>
   </si>
   <si>
     <t>InvalidAccountNumber</t>
+  </si>
+  <si>
+    <t>Nameforsubdisposition2</t>
+  </si>
+  <si>
+    <t>Zephyr16</t>
+  </si>
+  <si>
+    <t>Liora16</t>
+  </si>
+  <si>
+    <t>Orion16</t>
+  </si>
+  <si>
+    <t>Kael16</t>
+  </si>
+  <si>
+    <t>Nyx16</t>
+  </si>
+  <si>
+    <t>Gabriel16</t>
   </si>
 </sst>
 </file>
@@ -255,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -282,9 +270,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -609,177 +594,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="45" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="40.7109375" customWidth="1"/>
+    <col min="20" max="20" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -811,29 +777,29 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="14">
+      <c r="C2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="13">
         <v>1.23456789012345E+28</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>1.23123212312321E+24</v>
       </c>
     </row>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DC92A8-0B7C-4EA0-BE53-6A5392A8BF26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC402ECB-FFE6-4090-9613-5073C3802361}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="1" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Run</t>
   </si>
@@ -149,12 +149,39 @@
   </si>
   <si>
     <t>Gabriel16</t>
+  </si>
+  <si>
+    <t>Disposition</t>
+  </si>
+  <si>
+    <t>My bank</t>
+  </si>
+  <si>
+    <t>Subdisposition</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Interactiondetailsdate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -279,7 +306,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -755,10 +784,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,9 +796,13 @@
     <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -785,8 +818,26 @@
       <c r="E1" s="14" t="s">
         <v>33</v>
       </c>
+      <c r="F1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -801,6 +852,24 @@
       </c>
       <c r="E2" s="15">
         <v>1.23123212312321E+24</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="12">
+        <v>18</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="17">
+        <v>45644</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC402ECB-FFE6-4090-9613-5073C3802361}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8886E481-0589-4A49-8BA2-7DE436373364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="1" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -133,24 +133,6 @@
     <t>Nameforsubdisposition2</t>
   </si>
   <si>
-    <t>Zephyr16</t>
-  </si>
-  <si>
-    <t>Liora16</t>
-  </si>
-  <si>
-    <t>Orion16</t>
-  </si>
-  <si>
-    <t>Kael16</t>
-  </si>
-  <si>
-    <t>Nyx16</t>
-  </si>
-  <si>
-    <t>Gabriel16</t>
-  </si>
-  <si>
     <t>Disposition</t>
   </si>
   <si>
@@ -173,6 +155,24 @@
   </si>
   <si>
     <t>Interactiondetailsdate</t>
+  </si>
+  <si>
+    <t>Zephyr25</t>
+  </si>
+  <si>
+    <t>Liora25</t>
+  </si>
+  <si>
+    <t>Orion25</t>
+  </si>
+  <si>
+    <t>Kael25</t>
+  </si>
+  <si>
+    <t>Nyx25</t>
+  </si>
+  <si>
+    <t>Gabriel25</t>
   </si>
 </sst>
 </file>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,22 +726,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>15</v>
@@ -786,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -822,19 +822,19 @@
         <v>7</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -857,16 +857,16 @@
         <v>15</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I2" s="12">
         <v>18</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K2" s="17">
         <v>45644</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8886E481-0589-4A49-8BA2-7DE436373364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4835F6C1-E587-44A4-9A3E-1FEF166E3A95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -157,22 +157,22 @@
     <t>Interactiondetailsdate</t>
   </si>
   <si>
-    <t>Zephyr25</t>
-  </si>
-  <si>
-    <t>Liora25</t>
-  </si>
-  <si>
-    <t>Orion25</t>
-  </si>
-  <si>
-    <t>Kael25</t>
-  </si>
-  <si>
-    <t>Nyx25</t>
-  </si>
-  <si>
-    <t>Gabriel25</t>
+    <t>Zephyr43</t>
+  </si>
+  <si>
+    <t>Liora43</t>
+  </si>
+  <si>
+    <t>Orion43</t>
+  </si>
+  <si>
+    <t>Kael43</t>
+  </si>
+  <si>
+    <t>Nyx43</t>
+  </si>
+  <si>
+    <t>Gabriel43</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4835F6C1-E587-44A4-9A3E-1FEF166E3A95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D739FF-44D8-4B76-9110-8D6DCF73A91D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="2" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
     <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId2"/>
+    <sheet name="Call_Centre_Auto_Allocation" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>Run</t>
   </si>
@@ -173,6 +174,57 @@
   </si>
   <si>
     <t>Gabriel43</t>
+  </si>
+  <si>
+    <t>Call_Centre_Auto_Allocation</t>
+  </si>
+  <si>
+    <t>AllocatedTo</t>
+  </si>
+  <si>
+    <t>AllocationType</t>
+  </si>
+  <si>
+    <t>Auto Allocation</t>
+  </si>
+  <si>
+    <t>AllocationName</t>
+  </si>
+  <si>
+    <t>effectDate</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>ProcessingInterval</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>DownloadFile</t>
+  </si>
+  <si>
+    <t>List of Accounts - Excel</t>
+  </si>
+  <si>
+    <t>OutstandingBalanceOperator</t>
+  </si>
+  <si>
+    <t>OutstandingBalance</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>TestAllocation22</t>
   </si>
 </sst>
 </file>
@@ -625,7 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067DCD9D-336F-4B7B-9363-04AE9D95019D}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -786,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,4 +928,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D037E7E8-72D7-49B7-BBDD-DDCEC26EEA04}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="12">
+        <v>12345</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="12">
+        <v>5</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D739FF-44D8-4B76-9110-8D6DCF73A91D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CAA749-3915-4697-B686-09F1DD4CB165}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="2" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -224,7 +224,7 @@
     <t>=</t>
   </si>
   <si>
-    <t>TestAllocation22</t>
+    <t>TestAllocation23</t>
   </si>
 </sst>
 </file>
@@ -935,7 +935,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>59</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CAA749-3915-4697-B686-09F1DD4CB165}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EB699D-A63B-4AF0-963D-6314DBEE14BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="2" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -935,7 +935,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>59</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EB699D-A63B-4AF0-963D-6314DBEE14BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12C7A0C-671B-4DC2-BCD8-3F9AF758B16E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="2" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="1" activeTab="2" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
     <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId2"/>
     <sheet name="Call_Centre_Auto_Allocation" sheetId="5" r:id="rId3"/>
+    <sheet name="Core_Manual_Allocation" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
   <si>
     <t>Run</t>
   </si>
@@ -224,7 +225,28 @@
     <t>=</t>
   </si>
   <si>
-    <t>TestAllocation23</t>
+    <t>DialerFile</t>
+  </si>
+  <si>
+    <t>Dialer File - Excel</t>
+  </si>
+  <si>
+    <t>InvalidMobileNoExcel</t>
+  </si>
+  <si>
+    <t>Invalid Mobile No - Excel</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>TestAllocation28</t>
+  </si>
+  <si>
+    <t>A1299G465C</t>
+  </si>
+  <si>
+    <t>Manual Allocation</t>
   </si>
 </sst>
 </file>
@@ -932,9 +954,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D037E7E8-72D7-49B7-BBDD-DDCEC26EEA04}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -950,9 +972,12 @@
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -989,8 +1014,17 @@
       <c r="L1" s="14" t="s">
         <v>60</v>
       </c>
+      <c r="M1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
@@ -1010,10 +1044,10 @@
         <v>52</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H2" s="12">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>59</v>
@@ -1026,6 +1060,139 @@
       </c>
       <c r="L2" s="16" t="s">
         <v>61</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152EF6BD-1B0D-427E-BD33-C905FED452C1}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="12">
+        <v>12345</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="12">
+        <v>13</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12C7A0C-671B-4DC2-BCD8-3F9AF758B16E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B52202-0FA4-410F-9603-BCB153B94D0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="1" activeTab="2" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="1" activeTab="3" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>Run</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Manual Allocation</t>
+  </si>
+  <si>
+    <t>TestAllocation31</t>
   </si>
 </sst>
 </file>
@@ -956,7 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D037E7E8-72D7-49B7-BBDD-DDCEC26EEA04}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1044,10 +1047,10 @@
         <v>52</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H2" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>59</v>
@@ -1080,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152EF6BD-1B0D-427E-BD33-C905FED452C1}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B52202-0FA4-410F-9603-BCB153B94D0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4CE6AA-74ED-40D5-988F-995E0BEF3A16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="1" activeTab="3" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>Run</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>MobileNumber</t>
-  </si>
-  <si>
-    <t>TestAllocation28</t>
   </si>
   <si>
     <t>A1299G465C</t>
@@ -1047,7 +1044,7 @@
         <v>52</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="12">
         <v>22</v>
@@ -1071,7 +1068,7 @@
         <v>68</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1081,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152EF6BD-1B0D-427E-BD33-C905FED452C1}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,17 +1091,10 @@
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1123,35 +1113,11 @@
       <c r="F1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>69</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
@@ -1168,34 +1134,10 @@
         <v>12345</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="12">
-        <v>13</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4CE6AA-74ED-40D5-988F-995E0BEF3A16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8268DE03-DF7D-42D8-A847-07C0FA5EC4EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="1" activeTab="3" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="1" activeTab="2" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
   <si>
     <t>Run</t>
   </si>
@@ -246,7 +246,19 @@
     <t>Manual Allocation</t>
   </si>
   <si>
-    <t>TestAllocation31</t>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>AllocateTo</t>
+  </si>
+  <si>
+    <t>SelectCallCentre</t>
+  </si>
+  <si>
+    <t>CallCentre 1</t>
+  </si>
+  <si>
+    <t>TestAllocation36</t>
   </si>
 </sst>
 </file>
@@ -956,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D037E7E8-72D7-49B7-BBDD-DDCEC26EEA04}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,10 +1056,10 @@
         <v>52</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H2" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>59</v>
@@ -1078,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152EF6BD-1B0D-427E-BD33-C905FED452C1}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,10 +1103,11 @@
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1116,8 +1129,14 @@
       <c r="G1" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="H1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
@@ -1128,16 +1147,22 @@
         <v>19</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E2" s="12">
-        <v>12345</v>
+        <v>20000</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>71</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>19</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8268DE03-DF7D-42D8-A847-07C0FA5EC4EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22C66DC-4C76-48BC-A30E-C450A3843C77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="1" activeTab="2" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -258,7 +258,7 @@
     <t>CallCentre 1</t>
   </si>
   <si>
-    <t>TestAllocation36</t>
+    <t>TestAllocation51</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -395,6 +395,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D037E7E8-72D7-49B7-BBDD-DDCEC26EEA04}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -979,8 +980,8 @@
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
@@ -1055,10 +1056,10 @@
       <c r="F2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="18">
         <v>27</v>
       </c>
       <c r="I2" s="12" t="s">

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22C66DC-4C76-48BC-A30E-C450A3843C77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECE7443-CDAB-42CB-9AB3-B878B7778B5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="1" activeTab="2" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="1" activeTab="3" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
   <si>
     <t>Run</t>
   </si>
@@ -259,6 +259,36 @@
   </si>
   <si>
     <t>TestAllocation51</t>
+  </si>
+  <si>
+    <t>Alphabets</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>A1B2C3</t>
+  </si>
+  <si>
+    <t>Alphanumeric</t>
+  </si>
+  <si>
+    <t>ActionOwnerDropdownValue</t>
+  </si>
+  <si>
+    <t>Connected</t>
+  </si>
+  <si>
+    <t>SubDisposition</t>
+  </si>
+  <si>
+    <t>Moratorium</t>
+  </si>
+  <si>
+    <t>ActionDate</t>
   </si>
 </sst>
 </file>
@@ -969,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D037E7E8-72D7-49B7-BBDD-DDCEC26EEA04}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,79 +1121,141 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152EF6BD-1B0D-427E-BD33-C905FED452C1}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>74</v>
       </c>
+      <c r="K1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="18">
+        <v>31</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="12">
+      <c r="F2" s="12">
         <v>20000</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="J2" s="16" t="s">
         <v>75</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="12">
+        <v>123</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECE7443-CDAB-42CB-9AB3-B878B7778B5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC0ADB6-AEEF-441F-B888-8F3932DDC6CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="1" activeTab="3" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -258,9 +258,6 @@
     <t>CallCentre 1</t>
   </si>
   <si>
-    <t>TestAllocation51</t>
-  </si>
-  <si>
     <t>Alphabets</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
   </si>
   <si>
     <t>ActionDate</t>
+  </si>
+  <si>
+    <t>TestAllocation60</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,10 +1087,10 @@
         <v>52</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H2" s="18">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>59</v>
@@ -1123,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152EF6BD-1B0D-427E-BD33-C905FED452C1}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>50</v>
@@ -1181,22 +1181,22 @@
         <v>60</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>78</v>
-      </c>
       <c r="N1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>82</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>35</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R1" s="14" t="s">
         <v>40</v>
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="18">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>19</v>
@@ -1237,22 +1237,22 @@
         <v>61</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M2" s="12">
         <v>123</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R2" s="16" t="s">
         <v>41</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC0ADB6-AEEF-441F-B888-8F3932DDC6CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD0AAC7-E0F3-444D-8BE2-566BBEFAAB60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="1" activeTab="3" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="2" activeTab="4" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
     <sheet name="Updation_of_Disposition" sheetId="4" r:id="rId2"/>
     <sheet name="Call_Centre_Auto_Allocation" sheetId="5" r:id="rId3"/>
     <sheet name="Core_Manual_Allocation" sheetId="6" r:id="rId4"/>
+    <sheet name="Core_Regularization_Summary" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
   <si>
     <t>Run</t>
   </si>
@@ -1123,7 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152EF6BD-1B0D-427E-BD33-C905FED452C1}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1261,4 +1262,148 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B4D1E3-A54F-43D4-9D91-DE2E36DCF338}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="18">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="12">
+        <v>25000</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="12">
+        <v>123</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD0AAC7-E0F3-444D-8BE2-566BBEFAAB60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C83EAD7-3227-44FF-9E51-2F7E8A7DAB4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="2" activeTab="4" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
   <si>
     <t>Run</t>
   </si>
@@ -1266,32 +1266,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B4D1E3-A54F-43D4-9D91-DE2E36DCF338}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1299,108 +1289,42 @@
         <v>0</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="14" t="s">
         <v>62</v>
       </c>
+      <c r="D1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="F1" s="14" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18">
-        <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="12">
+        <v>25000</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="12">
-        <v>25000</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="F2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" s="12">
-        <v>123</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C83EAD7-3227-44FF-9E51-2F7E8A7DAB4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F99DCF1-2A64-4724-95C2-A1088DE62B80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="2" activeTab="4" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="3" activeTab="5" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Call_Centre_Auto_Allocation" sheetId="5" r:id="rId3"/>
     <sheet name="Core_Manual_Allocation" sheetId="6" r:id="rId4"/>
     <sheet name="Core_Regularization_Summary" sheetId="7" r:id="rId5"/>
+    <sheet name="CollectionAgencyDispositionPage" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
   <si>
     <t>Run</t>
   </si>
@@ -290,6 +291,15 @@
   </si>
   <si>
     <t>TestAllocation60</t>
+  </si>
+  <si>
+    <t>Core_Manual_Allocation</t>
+  </si>
+  <si>
+    <t>Core_Regularization_Summary</t>
+  </si>
+  <si>
+    <t>CollectionAgencyDispositionPage</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1135,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1215,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -1268,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B4D1E3-A54F-43D4-9D91-DE2E36DCF338}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,7 +1316,75 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>88</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="12">
+        <v>25000</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AC43AF-8675-4B7D-84F8-AD4CBBBB330D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F99DCF1-2A64-4724-95C2-A1088DE62B80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39F449D-69DB-4A70-89B3-A5F949B7CBE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="3" activeTab="5" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="106">
   <si>
     <t>Run</t>
   </si>
@@ -300,6 +300,54 @@
   </si>
   <si>
     <t>CollectionAgencyDispositionPage</t>
+  </si>
+  <si>
+    <t>AccountType</t>
+  </si>
+  <si>
+    <t>Not Allocated</t>
+  </si>
+  <si>
+    <t>SMACategory</t>
+  </si>
+  <si>
+    <t>SMA 0 (01-30 Days)</t>
+  </si>
+  <si>
+    <t>SUB-STANDARD</t>
+  </si>
+  <si>
+    <t>NPACategory</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Mumbai I</t>
+  </si>
+  <si>
+    <t>DPDDaysOperator</t>
+  </si>
+  <si>
+    <t>DPDDays</t>
+  </si>
+  <si>
+    <t>NextActionOwner</t>
+  </si>
+  <si>
+    <t>Collection Agency</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Not able to pay</t>
+  </si>
+  <si>
+    <t>NextActionDate</t>
+  </si>
+  <si>
+    <t>CommittedAmount</t>
   </si>
 </sst>
 </file>
@@ -1344,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AC43AF-8675-4B7D-84F8-AD4CBBBB330D}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,9 +1405,21 @@
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1381,8 +1441,44 @@
       <c r="G1" s="14" t="s">
         <v>74</v>
       </c>
+      <c r="H1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>89</v>
       </c>
@@ -1403,6 +1499,42 @@
       </c>
       <c r="G2" s="16" t="s">
         <v>75</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="12">
+        <v>5</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>21</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="12">
+        <v>1000000000</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39F449D-69DB-4A70-89B3-A5F949B7CBE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39BE578-046E-4CBF-9EA7-C00A203CC4EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="3" activeTab="5" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="5" activeTab="6" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Core_Manual_Allocation" sheetId="6" r:id="rId4"/>
     <sheet name="Core_Regularization_Summary" sheetId="7" r:id="rId5"/>
     <sheet name="CollectionAgencyDispositionPage" sheetId="8" r:id="rId6"/>
+    <sheet name="CollectionAgencyAgentAcAllocatP" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="110">
   <si>
     <t>Run</t>
   </si>
@@ -348,6 +349,18 @@
   </si>
   <si>
     <t>CommittedAmount</t>
+  </si>
+  <si>
+    <t>CollectionAgencyAgentAcAllocatPage</t>
+  </si>
+  <si>
+    <t>AcountType</t>
+  </si>
+  <si>
+    <t>Allocated</t>
+  </si>
+  <si>
+    <t>FromAndToDates</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AC43AF-8675-4B7D-84F8-AD4CBBBB330D}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -1540,4 +1553,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1541D38C-2445-45F6-9444-F0F53105CA81}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="12">
+        <v>5</v>
+      </c>
+      <c r="J2" s="18">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39BE578-046E-4CBF-9EA7-C00A203CC4EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80750820-3D88-437D-88DB-6EC259D6D6D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="5" activeTab="6" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="5" activeTab="5" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -1407,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AC43AF-8675-4B7D-84F8-AD4CBBBB330D}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1529,7 @@
         <v>64</v>
       </c>
       <c r="M2" s="12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>101</v>
@@ -1559,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1541D38C-2445-45F6-9444-F0F53105CA81}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1637,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="18">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80750820-3D88-437D-88DB-6EC259D6D6D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC50C751-969C-4476-9E23-F1D6AA15E27E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="5" activeTab="5" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="5" activeTab="6" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -1407,7 +1407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AC43AF-8675-4B7D-84F8-AD4CBBBB330D}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -1559,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1541D38C-2445-45F6-9444-F0F53105CA81}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1634,10 +1634,10 @@
         <v>64</v>
       </c>
       <c r="I2" s="12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J2" s="18">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC50C751-969C-4476-9E23-F1D6AA15E27E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF854FAC-FA10-45CD-B380-CB51870AFBF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="5" activeTab="6" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="6" activeTab="7" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Core_Regularization_Summary" sheetId="7" r:id="rId5"/>
     <sheet name="CollectionAgencyDispositionPage" sheetId="8" r:id="rId6"/>
     <sheet name="CollectionAgencyAgentAcAllocatP" sheetId="9" r:id="rId7"/>
+    <sheet name="AlertsTemplateManagement" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="129">
   <si>
     <t>Run</t>
   </si>
@@ -361,6 +362,63 @@
   </si>
   <si>
     <t>FromAndToDates</t>
+  </si>
+  <si>
+    <t>NotificationType</t>
+  </si>
+  <si>
+    <t>CurrentStatus</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>AlertsTemplateManagement</t>
+  </si>
+  <si>
+    <t>NotificationTypefortemplatecreation</t>
+  </si>
+  <si>
+    <t>InitialStatusfortemplatecreation</t>
+  </si>
+  <si>
+    <t>Categoryfortemplatecreation</t>
+  </si>
+  <si>
+    <t>Promotions</t>
+  </si>
+  <si>
+    <t>TemplateNamefortemplatecreation</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>TemplateBody</t>
+  </si>
+  <si>
+    <t>Automation testing improves software quality by identifying defects early. Selenium with Java helps in UI testing, ensuring reliability and efficiency in development.</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>EditInitialStatusfortemplatemodify</t>
+  </si>
+  <si>
+    <t>EditReason</t>
+  </si>
+  <si>
+    <t>Inactive</t>
   </si>
 </sst>
 </file>
@@ -387,7 +445,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,6 +461,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -498,6 +562,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,7 +1626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1541D38C-2445-45F6-9444-F0F53105CA81}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1643,4 +1710,107 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7110130-1CA5-43D3-9E98-63E50B406F7B}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.85546875" customWidth="1"/>
+    <col min="11" max="12" width="32.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF854FAC-FA10-45CD-B380-CB51870AFBF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF677DA-6F11-4915-B758-E121A60E8797}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="6" activeTab="7" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="7" activeTab="8" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="CollectionAgencyDispositionPage" sheetId="8" r:id="rId6"/>
     <sheet name="CollectionAgencyAgentAcAllocatP" sheetId="9" r:id="rId7"/>
     <sheet name="AlertsTemplateManagement" sheetId="10" r:id="rId8"/>
+    <sheet name="AlertsNotificationManagement" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="132">
   <si>
     <t>Run</t>
   </si>
@@ -419,6 +420,15 @@
   </si>
   <si>
     <t>Inactive</t>
+  </si>
+  <si>
+    <t>ScheduleType</t>
+  </si>
+  <si>
+    <t>AlertsNotificationManagement</t>
+  </si>
+  <si>
+    <t>One Time</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7110130-1CA5-43D3-9E98-63E50B406F7B}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1813,4 +1823,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F3273A-8B52-405B-9E7A-AEB1D5667FB4}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF677DA-6F11-4915-B758-E121A60E8797}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5BD8B4-8E4D-4A28-A954-43EDB94F3485}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="7" activeTab="8" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="9" activeTab="10" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="CollectionAgencyAgentAcAllocatP" sheetId="9" r:id="rId7"/>
     <sheet name="AlertsTemplateManagement" sheetId="10" r:id="rId8"/>
     <sheet name="AlertsNotificationManagement" sheetId="11" r:id="rId9"/>
+    <sheet name="CoreAlertsMaskAcAndMaskingAutho" sheetId="12" r:id="rId10"/>
+    <sheet name="CoreAlertsNoticeTypeMa.NoticeAc" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="150">
   <si>
     <t>Run</t>
   </si>
@@ -429,6 +431,60 @@
   </si>
   <si>
     <t>One Time</t>
+  </si>
+  <si>
+    <t>CoreAlertsMaskAcAndMaskingAutho</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Email 2</t>
+  </si>
+  <si>
+    <t>Status2</t>
+  </si>
+  <si>
+    <t>Unmask</t>
+  </si>
+  <si>
+    <t>CoreAlertsNoticeTypeMa.NoticeAc</t>
+  </si>
+  <si>
+    <t>Notice</t>
+  </si>
+  <si>
+    <t>Noticecategory</t>
+  </si>
+  <si>
+    <t>Ordinary</t>
+  </si>
+  <si>
+    <t>NoticeTypeName</t>
+  </si>
+  <si>
+    <t>Papertype</t>
+  </si>
+  <si>
+    <t>Plain</t>
+  </si>
+  <si>
+    <t>CostPerNotice</t>
+  </si>
+  <si>
+    <t>ProductCategory</t>
+  </si>
+  <si>
+    <t>Edu Loan</t>
   </si>
 </sst>
 </file>
@@ -1048,6 +1104,185 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4B6511-FA0D-4C90-AFD8-198B80EF948E}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B614D3E-FCFD-47A6-AEC5-E753D1920474}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="12">
+        <v>1</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="12">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F19261-6837-44AB-8CDF-ACF0A2220A25}">
   <dimension ref="A1:K2"/>
@@ -1829,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F3273A-8B52-405B-9E7A-AEB1D5667FB4}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5BD8B4-8E4D-4A28-A954-43EDB94F3485}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25998462-7B64-46D9-8354-D2498FE67653}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="9" activeTab="10" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="7" activeTab="9" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -22,8 +22,10 @@
     <sheet name="CollectionAgencyAgentAcAllocatP" sheetId="9" r:id="rId7"/>
     <sheet name="AlertsTemplateManagement" sheetId="10" r:id="rId8"/>
     <sheet name="AlertsNotificationManagement" sheetId="11" r:id="rId9"/>
-    <sheet name="CoreAlertsMaskAcAndMaskingAutho" sheetId="12" r:id="rId10"/>
-    <sheet name="CoreAlertsNoticeTypeMa.NoticeAc" sheetId="13" r:id="rId11"/>
+    <sheet name="CoreAlertsPlaceholderManagement" sheetId="15" r:id="rId10"/>
+    <sheet name="CoreAlertsMaskAcAndMaskingAutho" sheetId="12" r:id="rId11"/>
+    <sheet name="CoreAlertsNoticeTypeMa.NoticeAc" sheetId="13" r:id="rId12"/>
+    <sheet name="CoreBankAllocationSummary" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="157">
   <si>
     <t>Run</t>
   </si>
@@ -485,6 +487,27 @@
   </si>
   <si>
     <t>Edu Loan</t>
+  </si>
+  <si>
+    <t>CoreBankAllocationSummary</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>OsBalanceOperator</t>
+  </si>
+  <si>
+    <t>OsBalanceAmount</t>
+  </si>
+  <si>
+    <t>Amaravati</t>
+  </si>
+  <si>
+    <t>FromandToDates</t>
+  </si>
+  <si>
+    <t>CoreAlertsPlaceholderManagement</t>
   </si>
 </sst>
 </file>
@@ -588,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -630,6 +653,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,6 +1131,40 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2138D16E-E96E-4BC4-B20A-99E813E7E211}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4B6511-FA0D-4C90-AFD8-198B80EF948E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1179,11 +1239,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B614D3E-FCFD-47A6-AEC5-E753D1920474}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -1276,6 +1336,96 @@
       </c>
       <c r="L2" s="12">
         <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8E4961-C68C-4679-A32D-218F33356B0B}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="12">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="18">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25998462-7B64-46D9-8354-D2498FE67653}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269BBCFA-5DEE-408A-8BDA-DD42AA5648BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="7" activeTab="9" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="11" activeTab="12" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="158">
   <si>
     <t>Run</t>
   </si>
@@ -504,10 +504,13 @@
     <t>Amaravati</t>
   </si>
   <si>
-    <t>FromandToDates</t>
-  </si>
-  <si>
     <t>CoreAlertsPlaceholderManagement</t>
+  </si>
+  <si>
+    <t>TodaysDate</t>
+  </si>
+  <si>
+    <t>YesterdaysDate</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2138D16E-E96E-4BC4-B20A-99E813E7E211}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1153,7 +1156,7 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
@@ -1345,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8E4961-C68C-4679-A32D-218F33356B0B}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,9 +1365,10 @@
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1393,10 +1397,13 @@
         <v>73</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>150</v>
       </c>
@@ -1425,7 +1432,10 @@
         <v>151</v>
       </c>
       <c r="J2" s="18">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="K2" s="18">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269BBCFA-5DEE-408A-8BDA-DD42AA5648BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5C6F64-60C4-43DD-80D5-09B1E0E68EFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="11" activeTab="12" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
@@ -1432,10 +1432,10 @@
         <v>151</v>
       </c>
       <c r="J2" s="18">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K2" s="18">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5C6F64-60C4-43DD-80D5-09B1E0E68EFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1912ADF6-40D9-4D48-86CC-95281AE77661}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="11" activeTab="12" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="12" activeTab="12" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="CoreAlertsMaskAcAndMaskingAutho" sheetId="12" r:id="rId11"/>
     <sheet name="CoreAlertsNoticeTypeMa.NoticeAc" sheetId="13" r:id="rId12"/>
     <sheet name="CoreBankAllocationSummary" sheetId="14" r:id="rId13"/>
+    <sheet name="CoreBankRegularizationSummary" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="157">
   <si>
     <t>Run</t>
   </si>
@@ -507,10 +508,7 @@
     <t>CoreAlertsPlaceholderManagement</t>
   </si>
   <si>
-    <t>TodaysDate</t>
-  </si>
-  <si>
-    <t>YesterdaysDate</t>
+    <t>CoreBankRegularizationSummary</t>
   </si>
 </sst>
 </file>
@@ -1348,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8E4961-C68C-4679-A32D-218F33356B0B}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,11 +1362,9 @@
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1396,14 +1392,8 @@
       <c r="I1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>150</v>
       </c>
@@ -1431,11 +1421,53 @@
       <c r="I2" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="18">
-        <v>15</v>
-      </c>
-      <c r="K2" s="18">
-        <v>14</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F2863E-C76F-4273-86DE-AE6ECD3EF235}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinku.peter\eclipse-workspace\Beacon_FCM\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1912ADF6-40D9-4D48-86CC-95281AE77661}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBD3FDC-00BB-4DC3-9AB7-D2574A043D18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="12" activeTab="12" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" firstSheet="14" activeTab="15" xr2:uid="{37B91979-A2CD-4275-8B46-28CAE73357A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Disposition_master" sheetId="3" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="CoreAlertsNoticeTypeMa.NoticeAc" sheetId="13" r:id="rId12"/>
     <sheet name="CoreBankAllocationSummary" sheetId="14" r:id="rId13"/>
     <sheet name="CoreBankRegularizationSummary" sheetId="16" r:id="rId14"/>
+    <sheet name="CA-AllocationSummary" sheetId="17" r:id="rId15"/>
+    <sheet name="Core-AgencyAllocationSummary" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="159">
   <si>
     <t>Run</t>
   </si>
@@ -509,6 +511,12 @@
   </si>
   <si>
     <t>CoreBankRegularizationSummary</t>
+  </si>
+  <si>
+    <t>CA-AllocationSummary</t>
+  </si>
+  <si>
+    <t>Core-AgencyAllocationSummary</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8E4961-C68C-4679-A32D-218F33356B0B}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -1468,6 +1476,116 @@
       </c>
       <c r="D2" s="12" t="s">
         <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3E68E8-C116-40AE-98E2-A62D2B57518F}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055BF4D4-6048-41BC-A2E7-7DBEE4315184}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="12">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
